--- a/程序/四元组分数据处理以及学习/5折交叉验证各个模型损失.xlsx
+++ b/程序/四元组分数据处理以及学习/5折交叉验证各个模型损失.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,16 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>model</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>model</t>
-        </is>
-      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
           <t>R² train</t>
@@ -496,507 +491,443 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>KNeighborsUnif</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>KNeighborsUnif</t>
-        </is>
-      </c>
       <c r="C2" t="n">
-        <v>0.8678265959833018</v>
+        <v>0.1530365252392486</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.7712354270725433</v>
+        <v>0.01951296401427807</v>
       </c>
       <c r="E2" t="n">
-        <v>22.45718934510098</v>
+        <v>7.93214653134001</v>
       </c>
       <c r="F2" t="n">
-        <v>297.8415173359037</v>
+        <v>31.24470622646718</v>
       </c>
       <c r="G2" t="n">
-        <v>4.731217051460595</v>
+        <v>1.259535353322011</v>
       </c>
       <c r="H2" t="n">
-        <v>16.00812028657612</v>
+        <v>2.499788240090235</v>
       </c>
       <c r="I2" t="n">
-        <v>3.488536840442421</v>
+        <v>0.9540338297945921</v>
       </c>
       <c r="J2" t="n">
-        <v>12.93470978871072</v>
+        <v>1.988292569559466</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8238257642061695</v>
+        <v>0.225707065731874</v>
       </c>
       <c r="L2" t="n">
-        <v>3.028785339897396</v>
+        <v>0.473661163075046</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>KNeighborsDist</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>KNeighborsDist</t>
-        </is>
-      </c>
       <c r="C3" t="n">
-        <v>0.9791304947704272</v>
+        <v>0.1921112687595631</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.7646117719118872</v>
+        <v>0.01915048968000399</v>
       </c>
       <c r="E3" t="n">
-        <v>3.540041408499556</v>
+        <v>1.332409334366383</v>
       </c>
       <c r="F3" t="n">
-        <v>296.9607546638072</v>
+        <v>31.3074553542767</v>
       </c>
       <c r="G3" t="n">
-        <v>1.878266382703167</v>
+        <v>0.5162188168531602</v>
       </c>
       <c r="H3" t="n">
-        <v>15.9778943666526</v>
+        <v>2.502297158783373</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4787168835609535</v>
+        <v>0.1344764952811694</v>
       </c>
       <c r="J3" t="n">
-        <v>12.89695746044281</v>
+        <v>1.994700665500777</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1129677255999755</v>
+        <v>0.03181110257713305</v>
       </c>
       <c r="L3" t="n">
-        <v>3.019497222867431</v>
+        <v>0.4752449130181354</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>LightGBMXT</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>LightGBMXT</t>
-        </is>
-      </c>
       <c r="C4" t="n">
-        <v>0.9158856020797984</v>
+        <v>0.180392843160266</v>
       </c>
       <c r="D4" t="n">
-        <v>0.44289080453394</v>
+        <v>0.1060196092849107</v>
       </c>
       <c r="E4" t="n">
-        <v>14.17215775081955</v>
+        <v>3.311655321673798</v>
       </c>
       <c r="F4" t="n">
-        <v>94.42757708355524</v>
+        <v>16.26925547812676</v>
       </c>
       <c r="G4" t="n">
-        <v>3.763461273806405</v>
+        <v>0.8138372468342547</v>
       </c>
       <c r="H4" t="n">
-        <v>9.022580901948942</v>
+        <v>1.803843423256395</v>
       </c>
       <c r="I4" t="n">
-        <v>2.940312840388371</v>
+        <v>0.6286216020136792</v>
       </c>
       <c r="J4" t="n">
-        <v>7.004448105917639</v>
+        <v>1.417240857093911</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6982966285266571</v>
+        <v>0.1491718197829022</v>
       </c>
       <c r="L4" t="n">
-        <v>1.639069897736199</v>
+        <v>0.3363147757440786</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>LightGBM</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>LightGBM</t>
-        </is>
-      </c>
       <c r="C5" t="n">
-        <v>0.9330384931102154</v>
+        <v>0.1830844264957876</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3541642986999745</v>
+        <v>0.1188766513751154</v>
       </c>
       <c r="E5" t="n">
-        <v>11.24768370821286</v>
+        <v>2.857045999696779</v>
       </c>
       <c r="F5" t="n">
-        <v>112.4406898007517</v>
+        <v>14.04353050649198</v>
       </c>
       <c r="G5" t="n">
-        <v>3.351111019574067</v>
+        <v>0.7559161328741144</v>
       </c>
       <c r="H5" t="n">
-        <v>9.705455770085743</v>
+        <v>1.67591947936003</v>
       </c>
       <c r="I5" t="n">
-        <v>2.539151477634795</v>
+        <v>0.5695335746035119</v>
       </c>
       <c r="J5" t="n">
-        <v>7.445900029223585</v>
+        <v>1.241575883074505</v>
       </c>
       <c r="K5" t="n">
-        <v>0.602110308016488</v>
+        <v>0.1349011395454866</v>
       </c>
       <c r="L5" t="n">
-        <v>1.736366133300869</v>
+        <v>0.2938741281526006</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>RandomForestMSE</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>RandomForestMSE</t>
-        </is>
-      </c>
       <c r="C6" t="n">
-        <v>0.9641418195638943</v>
+        <v>0.1902055008686271</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3108048312244628</v>
+        <v>0.1191090950091824</v>
       </c>
       <c r="E6" t="n">
-        <v>6.060684728772007</v>
+        <v>1.6542941659858</v>
       </c>
       <c r="F6" t="n">
-        <v>120.4089843646232</v>
+        <v>14.00329142216677</v>
       </c>
       <c r="G6" t="n">
-        <v>2.460216083694974</v>
+        <v>0.5752032972759805</v>
       </c>
       <c r="H6" t="n">
-        <v>9.996235957850047</v>
+        <v>1.67351674160534</v>
       </c>
       <c r="I6" t="n">
-        <v>1.69696022878221</v>
+        <v>0.3909582728516541</v>
       </c>
       <c r="J6" t="n">
-        <v>7.715252038551315</v>
+        <v>1.311312631460336</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4010956624049938</v>
+        <v>0.09231288306038844</v>
       </c>
       <c r="L6" t="n">
-        <v>1.804594301005562</v>
+        <v>0.3138341900864189</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>CatBoost</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>CatBoost</t>
-        </is>
-      </c>
       <c r="C7" t="n">
-        <v>0.9370231377262714</v>
+        <v>0.1815534319144946</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4133354379945994</v>
+        <v>0.1063532543523533</v>
       </c>
       <c r="E7" t="n">
-        <v>10.70879750536597</v>
+        <v>3.115631494474795</v>
       </c>
       <c r="F7" t="n">
-        <v>94.5966120169283</v>
+        <v>16.21149707980625</v>
       </c>
       <c r="G7" t="n">
-        <v>3.267752914575257</v>
+        <v>0.7893834929202402</v>
       </c>
       <c r="H7" t="n">
-        <v>9.160578946468391</v>
+        <v>1.800638613370615</v>
       </c>
       <c r="I7" t="n">
-        <v>2.504905530346267</v>
+        <v>0.6040997274373754</v>
       </c>
       <c r="J7" t="n">
-        <v>7.14795155480476</v>
+        <v>1.434158886306505</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5944429096222368</v>
+        <v>0.1431619345307653</v>
       </c>
       <c r="L7" t="n">
-        <v>1.675378800205223</v>
+        <v>0.3425368287209053</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>ExtraTreesMSE</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ExtraTreesMSE</t>
-        </is>
-      </c>
       <c r="C8" t="n">
-        <v>0.9639429092017406</v>
+        <v>0.189618546168358</v>
       </c>
       <c r="D8" t="n">
-        <v>0.39405327787248</v>
+        <v>0.1078893116241996</v>
       </c>
       <c r="E8" t="n">
-        <v>6.102194309430668</v>
+        <v>1.753431010384796</v>
       </c>
       <c r="F8" t="n">
-        <v>101.4839712116519</v>
+        <v>15.94558513802188</v>
       </c>
       <c r="G8" t="n">
-        <v>2.468160483126147</v>
+        <v>0.5921876409356743</v>
       </c>
       <c r="H8" t="n">
-        <v>9.433557932826133</v>
+        <v>1.785809908026153</v>
       </c>
       <c r="I8" t="n">
-        <v>1.691332140380401</v>
+        <v>0.3991826112901068</v>
       </c>
       <c r="J8" t="n">
-        <v>7.257539130062368</v>
+        <v>1.40923574136301</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3998326153574918</v>
+        <v>0.09430496629447732</v>
       </c>
       <c r="L8" t="n">
-        <v>1.701968264841894</v>
+        <v>0.3368745894967611</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>NeuralNetFastAI</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>NeuralNetFastAI</t>
-        </is>
-      </c>
       <c r="C9" t="n">
-        <v>-2.868447995328584</v>
+        <v>0.1175925956488636</v>
       </c>
       <c r="D9" t="n">
-        <v>-9.491608626147222</v>
+        <v>-64.42248540804835</v>
       </c>
       <c r="E9" t="n">
-        <v>666.4814724810144</v>
+        <v>13.9186380460691</v>
       </c>
       <c r="F9" t="n">
-        <v>1534.378637294332</v>
+        <v>11187.0116386551</v>
       </c>
       <c r="G9" t="n">
-        <v>24.72659751168952</v>
+        <v>1.668450661306417</v>
       </c>
       <c r="H9" t="n">
-        <v>35.49645523346725</v>
+        <v>47.30118738183027</v>
       </c>
       <c r="I9" t="n">
-        <v>21.67463699684358</v>
+        <v>1.282373486316674</v>
       </c>
       <c r="J9" t="n">
-        <v>30.34560065349987</v>
+        <v>32.33649598885656</v>
       </c>
       <c r="K9" t="n">
-        <v>5.183806351796932</v>
+        <v>0.3042489148872151</v>
       </c>
       <c r="L9" t="n">
-        <v>7.26246538445732</v>
+        <v>7.668931245072867</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>XGBoost</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>XGBoost</t>
-        </is>
-      </c>
       <c r="C10" t="n">
-        <v>0.9474766218402116</v>
+        <v>0.1810437469038729</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4080875171910961</v>
+        <v>0.0811172100348581</v>
       </c>
       <c r="E10" t="n">
-        <v>8.920879011175082</v>
+        <v>3.201717462552638</v>
       </c>
       <c r="F10" t="n">
-        <v>98.06859692142504</v>
+        <v>20.5801919653526</v>
       </c>
       <c r="G10" t="n">
-        <v>2.974006705372803</v>
+        <v>0.8002146540213617</v>
       </c>
       <c r="H10" t="n">
-        <v>9.300597283445827</v>
+        <v>2.028802206492915</v>
       </c>
       <c r="I10" t="n">
-        <v>2.167778311437782</v>
+        <v>0.597693784330844</v>
       </c>
       <c r="J10" t="n">
-        <v>7.174537312291131</v>
+        <v>1.499745163908595</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5150807662040364</v>
+        <v>0.141706272930043</v>
       </c>
       <c r="L10" t="n">
-        <v>1.677236434739365</v>
+        <v>0.3526816323656393</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>NeuralNetTorch</t>
-        </is>
+      <c r="A11" s="1" t="n">
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NeuralNetTorch</t>
+          <t>LightGBMLarge</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.5396511876726924</v>
+        <v>0.1923289470432726</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1406620828148246</v>
+        <v>0.1248259260598895</v>
       </c>
       <c r="E11" t="n">
-        <v>81.16515702737883</v>
+        <v>1.29564339973589</v>
       </c>
       <c r="F11" t="n">
-        <v>102.8350728439552</v>
+        <v>13.01363193914539</v>
       </c>
       <c r="G11" t="n">
-        <v>8.802455489679144</v>
+        <v>0.5090468347285719</v>
       </c>
       <c r="H11" t="n">
-        <v>9.933098533872966</v>
+        <v>1.613296745124429</v>
       </c>
       <c r="I11" t="n">
-        <v>6.705828120247732</v>
+        <v>0.3141810934270748</v>
       </c>
       <c r="J11" t="n">
-        <v>8.116149329781308</v>
+        <v>1.24405771795849</v>
       </c>
       <c r="K11" t="n">
-        <v>1.584269460291858</v>
+        <v>0.07446055460320125</v>
       </c>
       <c r="L11" t="n">
-        <v>1.926652359268386</v>
+        <v>0.2957181725674395</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>LightGBMLarge</t>
-        </is>
+      <c r="A12" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LightGBMLarge</t>
+          <t>WeightedEnsemble_L2</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.9536179243946503</v>
+        <v>0.1842231463504878</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3216893983482664</v>
+        <v>-0.1883739304096108</v>
       </c>
       <c r="E12" t="n">
-        <v>7.744246170550845</v>
+        <v>2.664715836912972</v>
       </c>
       <c r="F12" t="n">
-        <v>119.1577908630614</v>
+        <v>67.23269233933596</v>
       </c>
       <c r="G12" t="n">
-        <v>2.779624681355607</v>
+        <v>0.7300295661016712</v>
       </c>
       <c r="H12" t="n">
-        <v>9.85823158779213</v>
+        <v>3.666952204197267</v>
       </c>
       <c r="I12" t="n">
-        <v>2.038327454357613</v>
+        <v>0.5516817805020044</v>
       </c>
       <c r="J12" t="n">
-        <v>7.614676023558426</v>
+        <v>2.782099877334223</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4836615165406427</v>
+        <v>0.1306332895385965</v>
       </c>
       <c r="L12" t="n">
-        <v>1.776670688895102</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>WeightedEnsemble_L2</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>WeightedEnsemble_L2</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9304769528397184</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.4023053874134036</v>
-      </c>
-      <c r="E13" t="n">
-        <v>11.8374595789618</v>
-      </c>
-      <c r="F13" t="n">
-        <v>102.6655585887204</v>
-      </c>
-      <c r="G13" t="n">
-        <v>3.434589237104128</v>
-      </c>
-      <c r="H13" t="n">
-        <v>9.256296805847194</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.605782551434429</v>
-      </c>
-      <c r="J13" t="n">
-        <v>7.202594463641828</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.6170934347666629</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.68527093848051</v>
+        <v>0.668700647133611</v>
       </c>
     </row>
   </sheetData>
